--- a/Null values of the dataset.xlsx
+++ b/Null values of the dataset.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16939</v>
+        <v>16938</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10760</v>
+        <v>10759</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10985</v>
+        <v>10984</v>
       </c>
     </row>
     <row r="14">

--- a/Null values of the dataset.xlsx
+++ b/Null values of the dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
@@ -481,7 +481,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>updated</t>
+          <t>type</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -491,220 +491,10 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>tz</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>16938</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>detail</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>felt</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9407</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>cdi</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9407</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>mmi</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10759</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>alert</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10984</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>tsunami</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>sig</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>net</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>types</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>nst</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>14556</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>dmin</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>rms</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>gap</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>magType</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B7" t="n">
         <v>0</v>
       </c>
     </row>
